--- a/jayud-trailer/jayud-trailer-web/src/main/resources/static/trailer.xlsx
+++ b/jayud-trailer/jayud-trailer-web/src/main/resources/static/trailer.xlsx
@@ -41,6 +41,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>提</t>
     </r>
     <r>
@@ -66,16 +72,16 @@
     <t>基本信息：</t>
   </si>
   <si>
-    <t>装柜/卸柜时间：</t>
-  </si>
-  <si>
-    <t>件数：{good.bulkCargoAmount}{good.bulkCargoUnit}</t>
-  </si>
-  <si>
-    <t>重量：{good.totalWeight}</t>
-  </si>
-  <si>
-    <t>SO#:1231456</t>
+    <t>装柜/卸柜时间：{timeCounterRent}</t>
+  </si>
+  <si>
+    <t>件数：{totalAmountName}/{totalXAmountName}</t>
+  </si>
+  <si>
+    <t>重量：{totalWeightName}</t>
+  </si>
+  <si>
+    <t>SO#:{so}</t>
   </si>
   <si>
     <t>柜号：{cabinetNumber}</t>
@@ -102,6 +108,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
       <t>司机</t>
     </r>
     <r>
@@ -130,7 +142,7 @@
     <t>{cuttingReplenishingTime}</t>
   </si>
   <si>
-    <t>起运 港：</t>
+    <t>起运港/目的港：</t>
   </si>
   <si>
     <t>{portCodeName}</t>
@@ -143,6 +155,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>备</t>
     </r>
     <r>
@@ -150,7 +168,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>注</t>
@@ -160,7 +177,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>栏</t>
@@ -170,7 +186,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>：{remark}</t>
@@ -206,12 +221,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,7 +273,6 @@
       <b/>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -271,7 +285,6 @@
       <b/>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -291,7 +304,6 @@
       <b/>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -303,23 +315,106 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="28"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -330,49 +425,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -382,56 +434,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -443,28 +462,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -493,25 +496,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,25 +628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,127 +646,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,6 +861,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -878,34 +905,245 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -931,252 +1169,91 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,80 +1266,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1271,10 +1274,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1283,140 +1286,140 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="44" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1483,173 +1486,179 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="37" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1971,13 +1980,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="H9" sqref="H9:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="27.4916666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.5833333333333" customWidth="1"/>
+    <col min="7" max="7" width="19.8166666666667" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" ht="31.5" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -2069,177 +2083,201 @@
       <c r="F8" s="19"/>
       <c r="G8" s="20"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="24" customHeight="1" spans="1:13">
       <c r="A9" s="21" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="28"/>
-    </row>
-    <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="75"/>
+    </row>
+    <row r="10" ht="26" customHeight="1" spans="1:13">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
+    </row>
+    <row r="11" ht="29" customHeight="1" spans="1:13">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="77"/>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:13">
+      <c r="A12" s="27"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="79"/>
     </row>
     <row r="13" ht="14.25" spans="1:7">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="36" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" ht="28" customHeight="1" spans="1:7">
+      <c r="A14" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="37"/>
-      <c r="F14" s="38" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="39"/>
-    </row>
-    <row r="15" ht="14.25" spans="1:7">
-      <c r="A15" s="40"/>
-      <c r="B15" s="41" t="s">
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" ht="36" customHeight="1" spans="1:7">
+      <c r="A15" s="36"/>
+      <c r="B15" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="37"/>
+      <c r="D15" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41" t="s">
+      <c r="E15" s="37"/>
+      <c r="F15" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="41"/>
-    </row>
-    <row r="16" ht="27.75" spans="1:7">
-      <c r="A16" s="42" t="s">
+      <c r="G15" s="37"/>
+    </row>
+    <row r="16" ht="54" customHeight="1" spans="1:7">
+      <c r="A16" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="45"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" ht="14.25" spans="1:7">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="48"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52" t="s">
+      <c r="C18" s="47"/>
+      <c r="D18" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="54"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="56" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="57"/>
-      <c r="G20" s="58"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
     </row>
     <row r="21" ht="14.25" spans="1:7">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
     </row>
     <row r="22" ht="14.25" spans="1:7">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="19"/>
@@ -2250,83 +2288,87 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="62" t="s">
+      <c r="D23" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="F23" s="65" t="s">
+      <c r="E23" s="58"/>
+      <c r="F23" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="66"/>
+      <c r="G23" s="62"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="70"/>
-      <c r="B25" s="68"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="70"/>
-      <c r="B26" s="68"/>
-      <c r="C26" s="72"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="70"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
+      <c r="G27" s="67"/>
     </row>
     <row r="28" ht="14.25" spans="1:7">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="73" t="s">
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="76" t="s">
+      <c r="E28" s="69"/>
+      <c r="F28" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="77"/>
+      <c r="G28" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="41">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
@@ -2354,7 +2396,7 @@
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="A4:G6"/>
-    <mergeCell ref="B9:G12"/>
+    <mergeCell ref="H9:M12"/>
     <mergeCell ref="A24:B27"/>
     <mergeCell ref="D24:E27"/>
     <mergeCell ref="F24:G27"/>
